--- a/Spell.xlsx
+++ b/Spell.xlsx
@@ -1,31 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\1_rebot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Rogue" sheetId="1" r:id="rId1"/>
     <sheet name="Druid" sheetId="2" r:id="rId2"/>
-    <sheet name="Monk" sheetId="3" r:id="rId3"/>
+    <sheet name="Hunter" sheetId="4" r:id="rId3"/>
+    <sheet name="Monk" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Druid!$B$1:$M$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Rogue!$B$1:$L$55</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -572,8 +563,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,11 +576,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -751,14 +747,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -805,7 +793,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -840,7 +828,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1017,14 +1005,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="1"/>
   <dimension ref="B1:M63"/>
   <sheetViews>
@@ -1033,7 +1021,7 @@
       <selection pane="bottomLeft" activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="26.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
@@ -1042,7 +1030,7 @@
     <col min="13" max="13" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -1080,7 +1068,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" hidden="1">
       <c r="B2" s="1" t="s">
         <v>40</v>
       </c>
@@ -1114,7 +1102,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" hidden="1">
       <c r="B3" s="1" t="s">
         <v>72</v>
       </c>
@@ -1146,7 +1134,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13">
       <c r="B4" s="1" t="s">
         <v>66</v>
       </c>
@@ -1168,7 +1156,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" hidden="1">
       <c r="B5" s="1" t="s">
         <v>41</v>
       </c>
@@ -1202,7 +1190,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" hidden="1">
       <c r="B6" s="1" t="s">
         <v>68</v>
       </c>
@@ -1234,7 +1222,7 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" hidden="1">
       <c r="B7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1266,7 +1254,7 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
     </row>
-    <row r="8" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" hidden="1">
       <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
@@ -1298,7 +1286,7 @@
       </c>
       <c r="M8" s="8"/>
     </row>
-    <row r="9" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" hidden="1">
       <c r="B9" s="1" t="s">
         <v>50</v>
       </c>
@@ -1330,7 +1318,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" hidden="1">
       <c r="B10" s="1" t="s">
         <v>34</v>
       </c>
@@ -1360,7 +1348,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="19"/>
     </row>
-    <row r="11" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" hidden="1">
       <c r="B11" s="1" t="s">
         <v>48</v>
       </c>
@@ -1392,7 +1380,7 @@
       </c>
       <c r="M11" s="8"/>
     </row>
-    <row r="12" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" hidden="1">
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1422,7 +1410,7 @@
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
     </row>
-    <row r="13" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" hidden="1">
       <c r="B13" s="1" t="s">
         <v>49</v>
       </c>
@@ -1454,7 +1442,7 @@
       </c>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" hidden="1">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
@@ -1486,7 +1474,7 @@
       </c>
       <c r="M14" s="8"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13">
       <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
@@ -1518,7 +1506,7 @@
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" hidden="1">
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
@@ -1550,7 +1538,7 @@
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13">
       <c r="B17" s="1" t="s">
         <v>53</v>
       </c>
@@ -1582,7 +1570,7 @@
       <c r="L17" s="8"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" hidden="1">
       <c r="B18" s="1" t="s">
         <v>71</v>
       </c>
@@ -1612,7 +1600,7 @@
       <c r="L18" s="8"/>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" hidden="1">
       <c r="B19" s="1" t="s">
         <v>74</v>
       </c>
@@ -1642,7 +1630,7 @@
       <c r="L19" s="8"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" hidden="1">
       <c r="B20" s="1" t="s">
         <v>28</v>
       </c>
@@ -1672,7 +1660,7 @@
       <c r="L20" s="8"/>
       <c r="M20" s="8"/>
     </row>
-    <row r="21" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" hidden="1">
       <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
@@ -1702,7 +1690,7 @@
       <c r="L21" s="8"/>
       <c r="M21" s="8"/>
     </row>
-    <row r="22" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" hidden="1">
       <c r="B22" s="1" t="s">
         <v>35</v>
       </c>
@@ -1734,7 +1722,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" hidden="1">
       <c r="B23" s="1" t="s">
         <v>52</v>
       </c>
@@ -1768,7 +1756,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" hidden="1">
       <c r="B24" s="1" t="s">
         <v>69</v>
       </c>
@@ -1800,7 +1788,7 @@
       <c r="L24" s="8"/>
       <c r="M24" s="2"/>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13">
       <c r="B25" s="1" t="s">
         <v>63</v>
       </c>
@@ -1818,7 +1806,7 @@
       <c r="L25" s="8"/>
       <c r="M25" s="2"/>
     </row>
-    <row r="26" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" hidden="1">
       <c r="B26" s="1" t="s">
         <v>55</v>
       </c>
@@ -1848,7 +1836,7 @@
       <c r="L26" s="8"/>
       <c r="M26" s="8"/>
     </row>
-    <row r="27" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" hidden="1">
       <c r="B27" s="1" t="s">
         <v>43</v>
       </c>
@@ -1880,7 +1868,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" hidden="1">
       <c r="B28" s="1" t="s">
         <v>17</v>
       </c>
@@ -1912,7 +1900,7 @@
       <c r="L28" s="8"/>
       <c r="M28" s="8"/>
     </row>
-    <row r="29" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" hidden="1">
       <c r="B29" s="1" t="s">
         <v>13</v>
       </c>
@@ -1944,7 +1932,7 @@
       </c>
       <c r="M29" s="8"/>
     </row>
-    <row r="30" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" hidden="1">
       <c r="B30" s="1" t="s">
         <v>87</v>
       </c>
@@ -1962,7 +1950,7 @@
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13">
       <c r="B31" s="1" t="s">
         <v>70</v>
       </c>
@@ -1994,7 +1982,7 @@
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
     </row>
-    <row r="32" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13" hidden="1">
       <c r="B32" s="1" t="s">
         <v>60</v>
       </c>
@@ -2024,7 +2012,7 @@
       <c r="L32" s="8"/>
       <c r="M32" s="8"/>
     </row>
-    <row r="33" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" hidden="1">
       <c r="B33" s="1" t="s">
         <v>47</v>
       </c>
@@ -2056,7 +2044,7 @@
       <c r="L33" s="8"/>
       <c r="M33" s="2"/>
     </row>
-    <row r="34" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" hidden="1">
       <c r="B34" s="1" t="s">
         <v>27</v>
       </c>
@@ -2086,7 +2074,7 @@
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
     </row>
-    <row r="35" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" hidden="1">
       <c r="B35" s="1" t="s">
         <v>56</v>
       </c>
@@ -2116,7 +2104,7 @@
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
     </row>
-    <row r="36" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" hidden="1">
       <c r="B36" s="1" t="s">
         <v>54</v>
       </c>
@@ -2148,7 +2136,7 @@
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
     </row>
-    <row r="37" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" hidden="1">
       <c r="B37" s="1" t="s">
         <v>37</v>
       </c>
@@ -2178,7 +2166,7 @@
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
     </row>
-    <row r="38" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" hidden="1">
       <c r="B38" s="1" t="s">
         <v>65</v>
       </c>
@@ -2208,7 +2196,7 @@
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
     </row>
-    <row r="39" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" hidden="1">
       <c r="B39" s="1" t="s">
         <v>18</v>
       </c>
@@ -2242,7 +2230,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13" hidden="1">
       <c r="B40" s="1" t="s">
         <v>58</v>
       </c>
@@ -2260,7 +2248,7 @@
       </c>
       <c r="M40" s="2"/>
     </row>
-    <row r="41" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" hidden="1">
       <c r="B41" s="1" t="s">
         <v>9</v>
       </c>
@@ -2292,7 +2280,7 @@
       </c>
       <c r="M41" s="8"/>
     </row>
-    <row r="42" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" hidden="1">
       <c r="B42" s="1" t="s">
         <v>33</v>
       </c>
@@ -2322,7 +2310,7 @@
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
     </row>
-    <row r="43" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" hidden="1">
       <c r="B43" s="1" t="s">
         <v>26</v>
       </c>
@@ -2352,7 +2340,7 @@
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
     </row>
-    <row r="44" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" hidden="1">
       <c r="B44" s="1" t="s">
         <v>14</v>
       </c>
@@ -2384,7 +2372,7 @@
       </c>
       <c r="M44" s="8"/>
     </row>
-    <row r="45" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" hidden="1">
       <c r="B45" s="1" t="s">
         <v>75</v>
       </c>
@@ -2416,7 +2404,7 @@
       <c r="L45" s="8"/>
       <c r="M45" s="2"/>
     </row>
-    <row r="46" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" hidden="1">
       <c r="B46" s="1" t="s">
         <v>62</v>
       </c>
@@ -2446,7 +2434,7 @@
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
     </row>
-    <row r="47" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" hidden="1">
       <c r="B47" s="1" t="s">
         <v>15</v>
       </c>
@@ -2476,7 +2464,7 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
     </row>
-    <row r="48" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" hidden="1">
       <c r="B48" s="1" t="s">
         <v>51</v>
       </c>
@@ -2506,7 +2494,7 @@
       <c r="L48" s="8"/>
       <c r="M48" s="2"/>
     </row>
-    <row r="49" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13" hidden="1">
       <c r="B49" s="1" t="s">
         <v>73</v>
       </c>
@@ -2536,7 +2524,7 @@
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
     </row>
-    <row r="50" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13" hidden="1">
       <c r="B50" s="1" t="s">
         <v>59</v>
       </c>
@@ -2556,7 +2544,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13" hidden="1">
       <c r="B51" s="1" t="s">
         <v>76</v>
       </c>
@@ -2586,7 +2574,7 @@
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
     </row>
-    <row r="52" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13" hidden="1">
       <c r="B52" s="1" t="s">
         <v>23</v>
       </c>
@@ -2616,7 +2604,7 @@
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
     </row>
-    <row r="53" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13" hidden="1">
       <c r="B53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2646,7 +2634,7 @@
       <c r="L53" s="8"/>
       <c r="M53" s="2"/>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13">
       <c r="B54" s="1" t="s">
         <v>20</v>
       </c>
@@ -2678,7 +2666,7 @@
       <c r="L54" s="8"/>
       <c r="M54" s="2"/>
     </row>
-    <row r="55" spans="2:13" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13" hidden="1">
       <c r="B55" s="1" t="s">
         <v>10</v>
       </c>
@@ -2698,7 +2686,7 @@
       </c>
       <c r="M55" s="8"/>
     </row>
-    <row r="56" spans="2:13" s="13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13" s="13" customFormat="1">
       <c r="B56" s="9"/>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -2712,7 +2700,7 @@
       <c r="L56" s="18"/>
       <c r="M56" s="18"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13">
       <c r="B57" s="3" t="s">
         <v>78</v>
       </c>
@@ -2730,7 +2718,7 @@
       <c r="L57" s="14"/>
       <c r="M57" s="14"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13">
       <c r="B58" s="1" t="s">
         <v>77</v>
       </c>
@@ -2750,7 +2738,7 @@
       <c r="L58" s="8"/>
       <c r="M58" s="8"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13">
       <c r="B59" s="1" t="s">
         <v>81</v>
       </c>
@@ -2770,7 +2758,7 @@
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13">
       <c r="B60" s="1" t="s">
         <v>83</v>
       </c>
@@ -2790,7 +2778,7 @@
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13">
       <c r="B61" s="1" t="s">
         <v>84</v>
       </c>
@@ -2810,7 +2798,7 @@
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13">
       <c r="B62" s="1"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2824,7 +2812,7 @@
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13">
       <c r="B63" s="1"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2855,27 +2843,28 @@
     <mergeCell ref="D60:I60"/>
     <mergeCell ref="D61:I61"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="28.28515625" customWidth="1"/>
     <col min="11" max="11" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -2913,7 +2902,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>150</v>
       </c>
@@ -2945,7 +2934,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13">
       <c r="B3" t="s">
         <v>136</v>
       </c>
@@ -2974,7 +2963,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13">
       <c r="B4" t="s">
         <v>131</v>
       </c>
@@ -3006,7 +2995,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13">
       <c r="B5" t="s">
         <v>131</v>
       </c>
@@ -3038,7 +3027,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13">
       <c r="B6" t="s">
         <v>97</v>
       </c>
@@ -3070,7 +3059,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13">
       <c r="B7" t="s">
         <v>118</v>
       </c>
@@ -3099,7 +3088,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13">
       <c r="B8" t="s">
         <v>140</v>
       </c>
@@ -3131,7 +3120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13">
       <c r="B9" t="s">
         <v>110</v>
       </c>
@@ -3160,7 +3149,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13">
       <c r="B10" t="s">
         <v>146</v>
       </c>
@@ -3189,7 +3178,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13">
       <c r="B11" t="s">
         <v>156</v>
       </c>
@@ -3221,7 +3210,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13">
       <c r="B12" t="s">
         <v>167</v>
       </c>
@@ -3250,7 +3239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13">
       <c r="B13" t="s">
         <v>142</v>
       </c>
@@ -3282,7 +3271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13">
       <c r="B14" t="s">
         <v>142</v>
       </c>
@@ -3314,7 +3303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13">
       <c r="B15" t="s">
         <v>133</v>
       </c>
@@ -3346,7 +3335,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13">
       <c r="B16" t="s">
         <v>171</v>
       </c>
@@ -3375,7 +3364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13">
       <c r="B17" t="s">
         <v>123</v>
       </c>
@@ -3407,7 +3396,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13">
       <c r="B18" t="s">
         <v>119</v>
       </c>
@@ -3436,7 +3425,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13">
       <c r="B19" t="s">
         <v>105</v>
       </c>
@@ -3465,7 +3454,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13">
       <c r="B20" t="s">
         <v>168</v>
       </c>
@@ -3494,7 +3483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13">
       <c r="B21" t="s">
         <v>145</v>
       </c>
@@ -3523,7 +3512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13">
       <c r="B22" t="s">
         <v>102</v>
       </c>
@@ -3558,7 +3547,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13">
       <c r="B23" t="s">
         <v>102</v>
       </c>
@@ -3593,7 +3582,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13">
       <c r="B24" t="s">
         <v>102</v>
       </c>
@@ -3628,7 +3617,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13">
       <c r="B25" t="s">
         <v>102</v>
       </c>
@@ -3663,7 +3652,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13">
       <c r="B26" t="s">
         <v>113</v>
       </c>
@@ -3692,7 +3681,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13">
       <c r="B27" t="s">
         <v>124</v>
       </c>
@@ -3727,7 +3716,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13">
       <c r="B28" t="s">
         <v>125</v>
       </c>
@@ -3762,7 +3751,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13">
       <c r="B29" t="s">
         <v>126</v>
       </c>
@@ -3797,7 +3786,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13">
       <c r="B30" t="s">
         <v>127</v>
       </c>
@@ -3832,7 +3821,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13">
       <c r="B31" t="s">
         <v>120</v>
       </c>
@@ -3864,7 +3853,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:13">
       <c r="B32" t="s">
         <v>137</v>
       </c>
@@ -3896,7 +3885,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13">
       <c r="B33" t="s">
         <v>138</v>
       </c>
@@ -3928,7 +3917,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13">
       <c r="B34" t="s">
         <v>108</v>
       </c>
@@ -3960,7 +3949,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13">
       <c r="B35" t="s">
         <v>161</v>
       </c>
@@ -3992,7 +3981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13">
       <c r="B36" t="s">
         <v>169</v>
       </c>
@@ -4021,7 +4010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13">
       <c r="B37" t="s">
         <v>122</v>
       </c>
@@ -4050,7 +4039,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13">
       <c r="B38" t="s">
         <v>134</v>
       </c>
@@ -4082,7 +4071,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13">
       <c r="B39" t="s">
         <v>162</v>
       </c>
@@ -4114,7 +4103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:13">
       <c r="B40" t="s">
         <v>114</v>
       </c>
@@ -4146,7 +4135,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13">
       <c r="B41" t="s">
         <v>175</v>
       </c>
@@ -4175,7 +4164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13">
       <c r="B42" t="s">
         <v>147</v>
       </c>
@@ -4207,7 +4196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13">
       <c r="B43" t="s">
         <v>139</v>
       </c>
@@ -4239,7 +4228,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13">
       <c r="B44" t="s">
         <v>172</v>
       </c>
@@ -4268,7 +4257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13">
       <c r="B45" t="s">
         <v>98</v>
       </c>
@@ -4303,7 +4292,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13">
       <c r="B46" t="s">
         <v>170</v>
       </c>
@@ -4332,7 +4321,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13">
       <c r="B47" t="s">
         <v>130</v>
       </c>
@@ -4361,7 +4350,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13">
       <c r="B48" t="s">
         <v>152</v>
       </c>
@@ -4393,7 +4382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:13">
       <c r="B49" t="s">
         <v>174</v>
       </c>
@@ -4422,7 +4411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:13">
       <c r="B50" t="s">
         <v>148</v>
       </c>
@@ -4451,7 +4440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:13">
       <c r="B51" t="s">
         <v>141</v>
       </c>
@@ -4483,7 +4472,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:13">
       <c r="B52" t="s">
         <v>160</v>
       </c>
@@ -4512,7 +4501,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:13">
       <c r="B53" t="s">
         <v>151</v>
       </c>
@@ -4544,7 +4533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:13">
       <c r="B54" t="s">
         <v>163</v>
       </c>
@@ -4576,7 +4565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:13">
       <c r="B55" t="s">
         <v>153</v>
       </c>
@@ -4608,7 +4597,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:13">
       <c r="B56" t="s">
         <v>173</v>
       </c>
@@ -4637,7 +4626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:13">
       <c r="B57" t="s">
         <v>121</v>
       </c>
@@ -4666,7 +4655,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:13">
       <c r="B58" t="s">
         <v>143</v>
       </c>
@@ -4698,7 +4687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:13">
       <c r="B59" t="s">
         <v>128</v>
       </c>
@@ -4727,7 +4716,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:13">
       <c r="B60" t="s">
         <v>107</v>
       </c>
@@ -4756,7 +4745,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:13">
       <c r="B61" t="s">
         <v>111</v>
       </c>
@@ -4788,7 +4777,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:13">
       <c r="B62" t="s">
         <v>164</v>
       </c>
@@ -4820,7 +4809,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:13">
       <c r="B63" t="s">
         <v>159</v>
       </c>
@@ -4852,7 +4841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:13">
       <c r="B64" t="s">
         <v>100</v>
       </c>
@@ -4887,7 +4876,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:13">
       <c r="B65" t="s">
         <v>155</v>
       </c>
@@ -4919,7 +4908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:13">
       <c r="B66" t="s">
         <v>129</v>
       </c>
@@ -4951,7 +4940,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:13">
       <c r="B67" t="s">
         <v>129</v>
       </c>
@@ -4983,7 +4972,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:13">
       <c r="B68" t="s">
         <v>165</v>
       </c>
@@ -5015,7 +5004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:13">
       <c r="B69" t="s">
         <v>149</v>
       </c>
@@ -5044,7 +5033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:13">
       <c r="B70" t="s">
         <v>144</v>
       </c>
@@ -5073,7 +5062,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:13">
       <c r="B71" t="s">
         <v>166</v>
       </c>
@@ -5105,7 +5094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:13">
       <c r="B72" t="s">
         <v>116</v>
       </c>
@@ -5137,7 +5126,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:13">
       <c r="B73" t="s">
         <v>135</v>
       </c>
@@ -5163,7 +5152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13">
       <c r="B74" t="s">
         <v>115</v>
       </c>
@@ -5195,7 +5184,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13">
       <c r="B75" t="s">
         <v>157</v>
       </c>
@@ -5227,7 +5216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13">
       <c r="B76" t="s">
         <v>112</v>
       </c>
@@ -5259,7 +5248,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13">
       <c r="B77" t="s">
         <v>106</v>
       </c>
@@ -5291,7 +5280,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13">
       <c r="B78" t="s">
         <v>176</v>
       </c>
@@ -5326,25 +5315,42 @@
       <sortCondition ref="B1:B78"/>
     </sortState>
   </autoFilter>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -5382,7 +5388,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13">
       <c r="B2" t="s">
         <v>177</v>
       </c>
@@ -5411,7 +5417,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13">
       <c r="B3" t="s">
         <v>178</v>
       </c>
@@ -5444,6 +5450,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>